--- a/Assets/StreamingAssets/Table/LevelInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/LevelInfo-.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB847B20-1247-4AAB-BCE8-777B80C19811}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4A525-F239-4AE4-9C26-F3B576816868}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="5685" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,34 @@
   </si>
   <si>
     <t>{"x":30,"y":-45,"z":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2001,2001,2001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1016]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,11 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,15 +570,15 @@
     <col min="3" max="3" width="19.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="135.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="57" style="3" customWidth="1"/>
-    <col min="10" max="10" width="62.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="3"/>
+    <col min="6" max="7" width="26.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="135.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="57" style="3" customWidth="1"/>
+    <col min="11" max="11" width="62.625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -570,18 +598,20 @@
         <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -594,8 +624,9 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,18 +646,20 @@
         <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -639,8 +672,9 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -660,18 +694,20 @@
         <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -684,8 +720,9 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -705,18 +742,20 @@
         <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -729,8 +768,9 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -750,18 +790,20 @@
         <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -774,8 +816,9 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -794,11 +837,13 @@
       <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -811,8 +856,9 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -832,18 +878,20 @@
         <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -856,8 +904,9 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -868,7 +917,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -881,8 +930,9 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -893,7 +943,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -906,8 +956,9 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -931,8 +982,9 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -956,8 +1008,9 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -981,8 +1034,9 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1006,8 +1060,9 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1031,8 +1086,9 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1056,8 +1112,9 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1081,8 +1138,9 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1106,8 +1164,9 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1131,8 +1190,9 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1156,8 +1216,9 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1181,8 +1242,9 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1193,14 +1255,15 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1218,8 +1281,9 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1237,8 +1301,9 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1256,8 +1321,9 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1275,8 +1341,9 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1296,8 +1363,9 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1317,8 +1385,9 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1338,8 +1407,9 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1359,8 +1429,9 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1380,8 +1451,9 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1401,8 +1473,9 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1422,8 +1495,9 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1443,8 +1517,9 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1464,8 +1539,9 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1485,8 +1561,9 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1506,22 +1583,25 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/Table/LevelInfo-.xlsx
+++ b/Assets/StreamingAssets/Table/LevelInfo-.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4A525-F239-4AE4-9C26-F3B576816868}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25AF025-360A-4397-BEE6-B76AB463EE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gal" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
